--- a/Documentation/TP_2or_fold4.xlsx
+++ b/Documentation/TP_2or_fold4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Master DKE\WiSe18_19\TeamProject\DataFiles\Zain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Master DKE\WiSe18_19\TeamProject\DataFiles\Zain\Transition Matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,9 +36,6 @@
     <t>5_Unknown</t>
   </si>
   <si>
-    <t>ScreenRecStarted</t>
-  </si>
-  <si>
     <t>1_Scanning1_Scanning</t>
   </si>
   <si>
@@ -114,16 +111,19 @@
     <t>5_Unknown5_Unknown</t>
   </si>
   <si>
-    <t>ScreenRecStarted1_Scanning</t>
-  </si>
-  <si>
-    <t>ScreenRecStarted3_Reading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ScreenRecStarted5_Unknown </t>
-  </si>
-  <si>
-    <t>ScreenRecStartedScreenRecStarted</t>
+    <t>0_unstated</t>
+  </si>
+  <si>
+    <t>0_unstated1_Scanning</t>
+  </si>
+  <si>
+    <t>0_unstated3_Reading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0_unstated5_Unknown </t>
+  </si>
+  <si>
+    <t>0_unstated0_unstated</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,12 +520,12 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>-2.4357293276295881E-3</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -571,7 +571,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>-7.2731036112170449</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -732,7 +732,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>-7.5505365700332021</v>
@@ -824,7 +824,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>-6.6617268551304676</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>-7.2344751979311628</v>
